--- a/BackTest/2020-01-14 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-14 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2530,7 +2530,7 @@
         <v>922551.5349113495</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>961727.3399113496</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>961727.3399113496</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>830174.5859113496</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>906248.3809113497</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>428760.9079113497</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>313450.6849113497</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>328028.0469113497</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>376551.5179113497</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>188011.5919113497</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>303735.5729113497</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>419530.9979113497</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>553522.6879113497</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>437404.5979113497</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>553129.2899113498</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>668711.9109113498</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>437774.4639113498</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>462029.9649113498</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>410238.6609113498</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>489387.8699113498</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>704296.0839113499</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>819627.5749113499</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>847325.6899113499</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>670013.6459113498</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>578018.3139113497</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>678230.9265113497</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>676755.7115113498</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>650268.5805113497</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>757242.7045113498</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>608174.7200113498</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>599349.9390113498</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>656197.9419113498</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>656197.9419113498</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>688905.6569113497</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>688905.6569113497</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>688905.6569113497</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>688905.6569113497</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>688905.6569113497</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>645710.2979113497</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>645710.2979113497</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>645710.2979113497</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>645710.2979113497</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>651532.4639113497</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>596717.1669113496</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>482518.3959113496</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>482518.3959113496</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>597158.0349113496</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>582155.3309113496</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>637178.3299113496</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>711533.5299113495</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>711533.5299113495</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>504033.6229113495</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>497904.5289113495</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>533863.7099113496</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>414007.5469113496</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>311514.5559113496</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>426676.3309113496</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>427647.7809113496</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>457967.6569113496</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>491207.3729113496</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>451325.2569113497</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>331355.1649113497</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>339535.4069113497</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>325937.8249113497</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>297681.2189113497</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>214999.2679113497</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>276780.0159113497</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>232161.6109113497</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>125288.0359113497</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>189160.8699113497</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>114798.0879113497</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>37470.47991134967</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>37470.47991134967</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>37470.47991134967</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>37470.47991134967</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>66510.19991134967</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-596766.5456886503</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-547941.4078886503</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-547941.4078886503</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-541210.8308886503</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-561171.6758886502</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-561171.6758886502</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-542742.1918886502</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-537326.5718886502</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-547886.4138886501</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-561823.6968886502</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-579625.8358886502</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-536920.3338886502</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-534659.3888886502</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-539193.4128886502</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-549628.9698886502</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-549628.9698886502</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-549628.9698886502</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-560677.8228886502</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-570545.2958886502</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-587580.5948886502</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-559763.7928886502</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-568467.2768886503</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-543360.5538886503</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-493718.8448886502</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-1231996.80108865</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1205789.63908865</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1214455.85408865</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1225269.32008865</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1209510.95308865</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1228922.63008865</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1168509.60608865</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1173666.84008865</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-1150539.75708865</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-1058771.01308865</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1004114.87808865</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1013544.28908865</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1033550.81408865</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1029148.10508865</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1034090.58908865</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1040742.88208865</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1051034.26608865</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1014892.55408865</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1012544.84808865</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1022452.58308865</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1036352.59608865</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1019398.26208865</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1000513.45508865</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-971021.7610886499</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-669990.0171886497</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-690619.4561886499</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-715781.2651886498</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-810378.9831886498</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-810378.9831886498</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-810378.9831886498</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-810378.9831886498</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-869313.5401886498</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-883508.3181886498</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-862416.6691886499</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-862416.6691886499</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-897324.4711886499</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12397,17 +12397,11 @@
         <v>-1292968.03138865</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>3.933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12440,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12477,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12510,17 +12496,11 @@
         <v>-1292968.03138865</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="n">
-        <v>3.931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12549,17 +12529,11 @@
         <v>-1271061.62938865</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>3.931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12588,17 +12562,11 @@
         <v>-1338387.21338865</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>3.932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12631,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12664,17 +12628,11 @@
         <v>-1594641.99438865</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>3.932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12703,17 +12661,11 @@
         <v>-1575397.95438865</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>3.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12742,17 +12694,11 @@
         <v>-1558470.20538865</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>3.931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12781,17 +12727,11 @@
         <v>-1577373.20938865</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
-        <v>3.932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12820,17 +12760,11 @@
         <v>-1577373.20938865</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="n">
-        <v>3.931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12859,17 +12793,11 @@
         <v>-1559544.17138865</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="n">
-        <v>3.931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12898,17 +12826,11 @@
         <v>-1573184.47638865</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>3.933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12937,17 +12859,11 @@
         <v>-1554633.66938865</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="n">
-        <v>3.932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12980,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13017,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13054,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13091,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13128,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13165,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13202,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13239,11 +13127,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13276,11 +13160,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13313,11 +13193,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13350,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13424,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13461,11 +13325,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13498,11 +13358,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13535,11 +13391,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13572,11 +13424,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13609,11 +13457,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13646,11 +13490,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13683,11 +13523,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13720,11 +13556,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13757,11 +13589,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13794,11 +13622,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13831,11 +13655,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13868,11 +13688,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13905,11 +13721,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13942,11 +13754,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13979,11 +13787,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14016,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14053,11 +13853,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14090,11 +13886,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14127,11 +13919,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14164,11 +13952,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14201,11 +13985,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14238,11 +14018,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14275,11 +14051,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14312,11 +14084,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14349,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14386,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14423,11 +14183,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14460,11 +14216,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14497,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14534,11 +14282,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14571,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14645,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14678,15 +14410,15 @@
         <v>-3144106.116088652</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J425" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14718,10 +14450,12 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L426" t="n">
@@ -14755,10 +14489,12 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L427" t="n">
@@ -14789,13 +14525,17 @@
         <v>-3743731.457088652</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>3.931</v>
+      </c>
+      <c r="J428" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L428" t="n">
@@ -14826,10 +14566,14 @@
         <v>-4068552.869188652</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>3.931</v>
+      </c>
+      <c r="J429" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14863,10 +14607,14 @@
         <v>-4520759.396994758</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="J430" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14903,7 +14651,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14940,7 +14690,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14974,10 +14726,14 @@
         <v>-4914833.437394759</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="J433" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15011,10 +14767,14 @@
         <v>-4914833.437394759</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="J434" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15051,7 +14811,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15088,7 +14850,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15125,7 +14889,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15159,10 +14925,14 @@
         <v>-5828630.500130045</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>3.938</v>
+      </c>
+      <c r="J438" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15196,10 +14966,14 @@
         <v>-5828630.500130045</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>3.937</v>
+      </c>
+      <c r="J439" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15233,10 +15007,14 @@
         <v>-6374888.776130045</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>3.937</v>
+      </c>
+      <c r="J440" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15270,10 +15048,14 @@
         <v>-5927226.065130045</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="J441" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15307,12 +15089,12 @@
         <v>-6685590.301130045</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="n">
-        <v>3.935</v>
-      </c>
-      <c r="J442" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15346,12 +15128,14 @@
         <v>-6577924.259130045</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>3.934</v>
       </c>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15385,12 +15169,14 @@
         <v>-6360044.040130045</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>3.936</v>
       </c>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15424,12 +15210,14 @@
         <v>-6835064.107130045</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>3.938</v>
       </c>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15463,12 +15251,14 @@
         <v>-6464829.550130045</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>3.935</v>
       </c>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15505,7 +15295,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15542,7 +15334,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15579,7 +15373,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15616,7 +15412,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15653,7 +15451,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15687,12 +15487,14 @@
         <v>-8777326.788674345</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>3.923</v>
       </c>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15726,10 +15528,14 @@
         <v>-8881020.271674344</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>3.924</v>
+      </c>
+      <c r="J453" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15763,12 +15569,14 @@
         <v>-9121476.858674344</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>3.923</v>
       </c>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15802,12 +15610,14 @@
         <v>-8414611.981130043</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>3.922</v>
       </c>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15841,10 +15651,14 @@
         <v>-9234081.702130044</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>3.938</v>
+      </c>
+      <c r="J456" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15878,12 +15692,12 @@
         <v>-10611349.41313004</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="n">
-        <v>3.935</v>
-      </c>
-      <c r="J457" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15917,12 +15731,14 @@
         <v>-10296361.49013004</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>3.933</v>
       </c>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15956,10 +15772,14 @@
         <v>-10296361.49013004</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>3.935</v>
+      </c>
+      <c r="J459" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15993,10 +15813,14 @@
         <v>-11233340.19913004</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>3.935</v>
+      </c>
+      <c r="J460" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16033,7 +15857,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16070,7 +15896,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16107,7 +15935,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16141,10 +15971,14 @@
         <v>-10707299.32993004</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>3.937</v>
+      </c>
+      <c r="J464" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16181,7 +16015,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16215,10 +16051,14 @@
         <v>-11013662.90223004</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="J466" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16255,7 +16095,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16292,7 +16134,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16329,7 +16173,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16363,10 +16209,14 @@
         <v>-10775880.00223004</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="J470" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16403,7 +16253,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16437,12 +16289,14 @@
         <v>-12030827.09023004</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>3.927</v>
       </c>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16479,7 +16333,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16513,10 +16369,14 @@
         <v>-12161225.11523004</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>3.928</v>
+      </c>
+      <c r="J474" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16550,10 +16410,14 @@
         <v>-12339355.26223004</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="J475" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16587,10 +16451,14 @@
         <v>-12339355.26223004</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>3.926</v>
+      </c>
+      <c r="J476" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16624,10 +16492,14 @@
         <v>-11676363.82323004</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>3.926</v>
+      </c>
+      <c r="J477" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16661,10 +16533,14 @@
         <v>-11710114.50823005</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="J478" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16701,7 +16577,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16735,12 +16613,12 @@
         <v>-11771627.87923004</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="J480" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16777,7 +16655,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16811,10 +16691,14 @@
         <v>-11286838.70123005</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="J482" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16851,7 +16735,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16885,10 +16771,14 @@
         <v>-11286838.70123005</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="J484" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16925,7 +16815,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16959,10 +16851,14 @@
         <v>-11054840.34823005</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>3.931</v>
+      </c>
+      <c r="J486" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16999,7 +16895,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17036,7 +16934,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17073,7 +16973,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17110,7 +17012,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17147,7 +17051,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17184,7 +17090,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17221,7 +17129,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17258,7 +17168,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17295,7 +17207,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17332,7 +17246,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17369,7 +17285,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17406,7 +17324,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17443,7 +17363,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17480,7 +17402,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17517,7 +17441,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17554,7 +17480,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17591,7 +17519,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17628,7 +17558,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17665,7 +17597,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17702,7 +17636,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17739,7 +17675,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17776,7 +17714,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17813,7 +17753,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17850,7 +17792,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17887,7 +17831,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17924,7 +17870,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17961,7 +17909,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17998,7 +17948,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18035,7 +17987,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18072,7 +18026,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18109,7 +18065,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18146,7 +18104,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18183,7 +18143,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18220,7 +18182,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18257,7 +18221,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18291,12 +18257,12 @@
         <v>-12770096.03043004</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="n">
-        <v>3.937</v>
-      </c>
-      <c r="J522" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18333,7 +18299,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18367,10 +18335,14 @@
         <v>-13007373.35243004</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>3.935</v>
+      </c>
+      <c r="J524" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18404,10 +18376,14 @@
         <v>-13007373.35243004</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="J525" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18441,10 +18417,14 @@
         <v>-12160118.43343004</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="J526" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18481,7 +18461,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18515,10 +18497,14 @@
         <v>-12831945.31583004</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>3.933</v>
+      </c>
+      <c r="J528" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18555,7 +18541,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18592,7 +18580,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18629,7 +18619,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18666,7 +18658,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18703,7 +18697,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18740,7 +18736,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18777,7 +18775,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18814,7 +18814,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18851,7 +18853,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18888,7 +18892,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18925,7 +18931,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18962,7 +18970,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18999,7 +19009,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19036,7 +19048,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19073,7 +19087,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19110,7 +19126,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19147,7 +19165,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19184,7 +19204,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19221,7 +19243,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19258,7 +19282,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19295,7 +19321,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19332,7 +19360,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19369,7 +19399,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19406,7 +19438,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19440,10 +19474,12 @@
         <v>-12699882.50351654</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19480,7 +19516,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19517,7 +19555,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19554,7 +19594,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19591,7 +19633,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19628,7 +19672,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19665,7 +19711,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19702,7 +19750,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19739,7 +19789,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19776,7 +19828,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19810,10 +19864,12 @@
         <v>-13606918.60351654</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19850,7 +19906,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19884,10 +19942,12 @@
         <v>-13389167.93251654</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19924,7 +19984,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19961,7 +20023,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19998,7 +20062,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20035,7 +20101,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20072,7 +20140,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20109,7 +20179,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20146,7 +20218,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20183,7 +20257,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20220,7 +20296,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20257,7 +20335,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20294,7 +20374,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20331,7 +20413,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20368,7 +20452,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20405,7 +20491,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20442,7 +20530,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20476,10 +20566,14 @@
         <v>-15847698.02411654</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="J581" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20513,10 +20607,14 @@
         <v>-15607172.90711654</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="J582" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20550,10 +20648,14 @@
         <v>-15659047.83711654</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="J583" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20587,10 +20689,14 @@
         <v>-15497146.98161654</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>3.922</v>
+      </c>
+      <c r="J584" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20624,10 +20730,14 @@
         <v>-15324089.91261654</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>3.941</v>
+      </c>
+      <c r="J585" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20661,10 +20771,14 @@
         <v>-14950992.48961654</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="J586" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20701,7 +20815,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20738,7 +20854,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20775,7 +20893,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20812,7 +20932,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20849,7 +20971,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20886,7 +21010,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20923,7 +21049,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20960,7 +21088,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20997,7 +21127,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21034,7 +21166,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21071,7 +21205,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21108,7 +21244,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21145,7 +21283,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21179,10 +21319,12 @@
         <v>-12884182.27733514</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21216,10 +21358,12 @@
         <v>-13027291.13033514</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21256,7 +21400,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21293,7 +21439,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21327,10 +21475,12 @@
         <v>-13091112.66163514</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21364,10 +21514,12 @@
         <v>-13091112.66163514</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21401,10 +21553,12 @@
         <v>-13407331.82663514</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21438,10 +21592,12 @@
         <v>-13407331.82663514</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21475,10 +21631,12 @@
         <v>-13407331.82663514</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21512,10 +21670,12 @@
         <v>-13750676.25083514</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21549,10 +21709,12 @@
         <v>-13159995.44033514</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21589,7 +21751,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21626,7 +21790,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21663,7 +21829,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21697,10 +21865,12 @@
         <v>-13709640.22833513</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21737,7 +21907,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21771,10 +21943,12 @@
         <v>-14756317.86723514</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21808,10 +21982,12 @@
         <v>-15930694.54673514</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21845,10 +22021,12 @@
         <v>-15930694.54673514</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21885,7 +22063,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21919,10 +22099,12 @@
         <v>-16322754.65033514</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21959,7 +22141,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21993,10 +22177,12 @@
         <v>-17464260.02033514</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22033,7 +22219,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22070,7 +22258,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22107,7 +22297,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22144,7 +22336,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22181,7 +22375,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22218,7 +22414,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22255,7 +22453,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22289,10 +22489,14 @@
         <v>-17215866.50903514</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="J630" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22329,7 +22533,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22366,7 +22572,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22403,7 +22611,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22440,7 +22650,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22477,7 +22689,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22514,7 +22728,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22551,7 +22767,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22588,7 +22806,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22625,7 +22845,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22659,10 +22881,12 @@
         <v>-19908750.42643514</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22696,10 +22920,12 @@
         <v>-18950804.92903513</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22733,10 +22959,12 @@
         <v>-19001482.91403513</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22773,7 +23001,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22810,7 +23040,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22847,7 +23079,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22884,7 +23118,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22921,7 +23157,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22958,7 +23196,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22995,7 +23235,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23032,7 +23274,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23069,7 +23313,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23106,7 +23352,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23143,7 +23391,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23180,7 +23430,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23217,7 +23469,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23254,7 +23508,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23291,7 +23547,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23328,7 +23586,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23365,7 +23625,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23402,7 +23664,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23439,7 +23703,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23476,7 +23742,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23513,7 +23781,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23550,7 +23820,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23587,7 +23859,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23624,7 +23898,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23661,7 +23937,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23698,7 +23976,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23735,7 +24015,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23772,7 +24054,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23809,7 +24093,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23846,7 +24132,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23883,7 +24171,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23920,7 +24210,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23957,7 +24249,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23994,7 +24288,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24031,7 +24327,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24068,7 +24366,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24105,7 +24405,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24142,7 +24444,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24179,7 +24483,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24216,7 +24522,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24253,7 +24561,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24290,7 +24600,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24327,7 +24639,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24364,7 +24678,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24401,7 +24717,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24438,7 +24756,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24475,7 +24795,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24512,7 +24834,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24549,7 +24873,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24586,7 +24912,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24623,7 +24951,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24660,7 +24990,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24697,7 +25029,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24734,7 +25068,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24771,7 +25107,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24808,7 +25146,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24845,7 +25185,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24882,7 +25224,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24919,7 +25263,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24956,7 +25302,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24993,7 +25341,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25030,7 +25380,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25067,7 +25419,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25104,7 +25458,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25141,7 +25497,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25178,7 +25536,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25215,7 +25575,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25252,7 +25614,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25289,7 +25653,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25323,10 +25689,12 @@
         <v>-19515351.63103514</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25360,10 +25728,12 @@
         <v>-18995214.55173514</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25397,10 +25767,12 @@
         <v>-19045214.55173514</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25434,10 +25806,12 @@
         <v>-19045214.55173514</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25471,10 +25845,12 @@
         <v>-19146012.47123514</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25511,7 +25887,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25545,10 +25923,12 @@
         <v>-19146012.47123514</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25585,7 +25965,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25622,7 +26004,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25659,7 +26043,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25696,7 +26082,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25733,7 +26121,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25767,10 +26157,12 @@
         <v>-19527781.48933514</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25807,7 +26199,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25841,10 +26235,12 @@
         <v>-19641037.02833514</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25881,7 +26277,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25918,7 +26316,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25955,7 +26355,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25992,7 +26394,9 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26029,7 +26433,9 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26066,7 +26472,9 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26103,7 +26511,9 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26140,7 +26550,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26177,7 +26589,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26214,7 +26628,9 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26251,7 +26667,9 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26288,7 +26706,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26325,7 +26745,9 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26359,10 +26781,12 @@
         <v>-19824620.88913514</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26399,7 +26823,9 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26436,7 +26862,9 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26470,10 +26898,12 @@
         <v>-19857959.52913514</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26510,7 +26940,9 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26547,7 +26979,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26584,7 +27018,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26621,7 +27057,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26655,10 +27093,12 @@
         <v>-19387633.83263515</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26695,7 +27135,9 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26732,7 +27174,9 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26769,7 +27213,9 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26806,7 +27252,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26843,7 +27291,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26880,7 +27330,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26917,7 +27369,9 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26954,7 +27408,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26991,7 +27447,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27028,7 +27486,9 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27065,7 +27525,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27102,7 +27564,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27139,7 +27603,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27176,7 +27642,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27213,7 +27681,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27250,7 +27720,9 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27287,7 +27759,9 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27324,7 +27798,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27361,7 +27837,9 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27398,7 +27876,9 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27435,7 +27915,9 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27472,7 +27954,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27509,7 +27993,9 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27546,7 +28032,9 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27583,7 +28071,9 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27620,7 +28110,9 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27657,7 +28149,9 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27694,7 +28188,9 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27731,7 +28227,9 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27768,7 +28266,9 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27805,7 +28305,9 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27842,7 +28344,9 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27879,7 +28383,9 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27916,7 +28422,9 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27953,7 +28461,9 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27990,7 +28500,9 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28027,7 +28539,9 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28064,7 +28578,9 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28101,7 +28617,9 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28138,7 +28656,9 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28175,7 +28695,9 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28212,7 +28734,9 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28249,7 +28773,9 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28286,7 +28812,9 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28323,7 +28851,9 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28360,7 +28890,9 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28397,7 +28929,9 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28434,7 +28968,9 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28471,7 +29007,9 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28508,7 +29046,9 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28545,7 +29085,9 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28582,7 +29124,9 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28619,7 +29163,9 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28656,7 +29202,9 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28693,7 +29241,9 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28730,7 +29280,9 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28767,7 +29319,9 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28804,7 +29358,9 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28841,7 +29397,9 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28878,7 +29436,9 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28915,7 +29475,9 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28952,7 +29514,9 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28989,7 +29553,9 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29026,7 +29592,9 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29063,7 +29631,9 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29100,7 +29670,9 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29137,7 +29709,9 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29174,7 +29748,9 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29211,7 +29787,9 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29248,7 +29826,9 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29285,7 +29865,9 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29322,7 +29904,9 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29359,7 +29943,9 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29396,7 +29982,9 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29433,7 +30021,9 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29470,7 +30060,9 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29507,7 +30099,9 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29544,7 +30138,9 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29581,7 +30177,9 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29618,7 +30216,9 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29655,7 +30255,9 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29692,7 +30294,9 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29729,7 +30333,9 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29766,7 +30372,9 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29803,7 +30411,9 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29840,7 +30450,9 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29877,7 +30489,9 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29914,7 +30528,9 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29951,7 +30567,9 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29988,7 +30606,9 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30025,7 +30645,9 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30062,7 +30684,9 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30099,7 +30723,9 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30136,7 +30762,9 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30173,7 +30801,9 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30210,7 +30840,9 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30247,7 +30879,9 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30284,7 +30918,9 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30321,7 +30957,9 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30358,7 +30996,9 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30395,7 +31035,9 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30432,7 +31074,9 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30469,7 +31113,9 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30506,7 +31152,9 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30543,7 +31191,9 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30580,7 +31230,9 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30617,7 +31269,9 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30654,7 +31308,9 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30691,7 +31347,9 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30728,7 +31386,9 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30765,7 +31425,9 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30802,7 +31464,9 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30839,7 +31503,9 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30876,7 +31542,9 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30913,7 +31581,9 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30950,7 +31620,9 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30987,7 +31659,9 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31024,7 +31698,9 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31061,7 +31737,9 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31098,7 +31776,9 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31135,7 +31815,9 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31172,7 +31854,9 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31209,7 +31893,9 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31246,7 +31932,9 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31283,7 +31971,9 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31320,7 +32010,9 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31357,7 +32049,9 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31394,7 +32088,9 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31431,7 +32127,9 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31468,7 +32166,9 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31505,7 +32205,9 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31542,7 +32244,9 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31579,7 +32283,9 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31616,7 +32322,9 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31653,7 +32361,9 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31690,7 +32400,9 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31727,7 +32439,9 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31764,7 +32478,9 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31801,7 +32517,9 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31838,7 +32556,9 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31875,7 +32595,9 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31912,7 +32634,9 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31949,7 +32673,9 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31986,7 +32712,9 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32023,7 +32751,9 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32060,7 +32790,9 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32097,7 +32829,9 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32134,7 +32868,9 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32171,7 +32907,9 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32208,7 +32946,9 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32245,7 +32985,9 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32282,7 +33024,9 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32319,7 +33063,9 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32356,7 +33102,9 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32393,7 +33141,9 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32430,7 +33180,9 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32467,7 +33219,9 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32504,7 +33258,9 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32541,7 +33297,9 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32578,7 +33336,9 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32615,7 +33375,9 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32652,7 +33414,9 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32689,7 +33453,9 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32726,7 +33492,9 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32763,7 +33531,9 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32800,7 +33570,9 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32837,7 +33609,9 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32874,7 +33648,9 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32911,7 +33687,9 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32948,7 +33726,9 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32985,7 +33765,9 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33022,7 +33804,9 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33059,7 +33843,9 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33096,7 +33882,9 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33133,7 +33921,9 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33170,7 +33960,9 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33207,7 +33999,9 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33244,7 +34038,9 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33281,7 +34077,9 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33318,7 +34116,9 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33355,7 +34155,9 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33392,7 +34194,9 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33429,7 +34233,9 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33466,7 +34272,9 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33503,7 +34311,9 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33540,7 +34350,9 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33577,7 +34389,9 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33614,7 +34428,9 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33651,7 +34467,9 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33688,7 +34506,9 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33725,7 +34545,9 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33762,7 +34584,9 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33799,7 +34623,9 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33836,7 +34662,9 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33873,7 +34701,9 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33910,7 +34740,9 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33947,7 +34779,9 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33984,7 +34818,9 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34021,7 +34857,9 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34058,7 +34896,9 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34095,7 +34935,9 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34132,7 +34974,9 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34169,7 +35013,9 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34206,7 +35052,9 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34243,7 +35091,9 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34280,7 +35130,9 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34317,7 +35169,9 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34354,7 +35208,9 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34391,7 +35247,9 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34428,7 +35286,9 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34465,7 +35325,9 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34502,7 +35364,9 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34539,7 +35403,9 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34576,7 +35442,9 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34613,7 +35481,9 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34650,7 +35520,9 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34687,7 +35559,9 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34724,7 +35598,9 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34761,7 +35637,9 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34798,7 +35676,9 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34835,7 +35715,9 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34872,7 +35754,9 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34909,7 +35793,9 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34946,7 +35832,9 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34983,7 +35871,9 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35020,7 +35910,9 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35057,7 +35949,9 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35094,7 +35988,9 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35131,7 +36027,9 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35168,7 +36066,9 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35205,7 +36105,9 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35242,7 +36144,9 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35279,7 +36183,9 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35316,7 +36222,9 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35353,7 +36261,9 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35390,7 +36300,9 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35427,7 +36339,9 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35464,7 +36378,9 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35501,7 +36417,9 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35538,7 +36456,9 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35575,7 +36495,9 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35612,7 +36534,9 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35649,7 +36573,9 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35686,7 +36612,9 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35723,7 +36651,9 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
+      <c r="J993" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35760,7 +36690,9 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
+      <c r="J994" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35797,7 +36729,9 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
+      <c r="J995" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35834,7 +36768,9 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
+      <c r="J996" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35871,7 +36807,9 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
+      <c r="J997" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35908,7 +36846,9 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
+      <c r="J998" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35945,7 +36885,9 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
+      <c r="J999" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35982,7 +36924,9 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
+      <c r="J1000" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36019,7 +36963,9 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
+      <c r="J1001" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36056,7 +37002,9 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
+      <c r="J1002" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36090,16 +37038,20 @@
         <v>-17166700.8658381</v>
       </c>
       <c r="H1003" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
+      <c r="J1003" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1003" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L1003" t="n">
+        <v>1</v>
+      </c>
       <c r="M1003" t="inlineStr"/>
     </row>
     <row r="1004">
@@ -36125,11 +37077,17 @@
         <v>-16892376.7538381</v>
       </c>
       <c r="H1004" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="J1004" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -36158,11 +37116,17 @@
         <v>-16892376.7538381</v>
       </c>
       <c r="H1005" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="J1005" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -36191,11 +37155,17 @@
         <v>-16622134.6956381</v>
       </c>
       <c r="H1006" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="J1006" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -36224,11 +37194,17 @@
         <v>-16327833.3822381</v>
       </c>
       <c r="H1007" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="J1007" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -36257,11 +37233,17 @@
         <v>-16327833.3822381</v>
       </c>
       <c r="H1008" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="J1008" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -36290,11 +37272,17 @@
         <v>-15915955.3349381</v>
       </c>
       <c r="H1009" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="J1009" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -36323,11 +37311,17 @@
         <v>-15911926.9249381</v>
       </c>
       <c r="H1010" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="J1010" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -36356,11 +37350,17 @@
         <v>-16847321.2268381</v>
       </c>
       <c r="H1011" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="J1011" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -36389,11 +37389,17 @@
         <v>-16775209.4098381</v>
       </c>
       <c r="H1012" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="J1012" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -36422,11 +37428,17 @@
         <v>-16948191.1699381</v>
       </c>
       <c r="H1013" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="J1013" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -36455,11 +37467,17 @@
         <v>-16998193.5342381</v>
       </c>
       <c r="H1014" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="J1014" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -36488,11 +37506,17 @@
         <v>-16998193.5342381</v>
       </c>
       <c r="H1015" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="J1015" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -36521,11 +37545,17 @@
         <v>-16911838.3778381</v>
       </c>
       <c r="H1016" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="J1016" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -36554,11 +37584,17 @@
         <v>-16911838.3778381</v>
       </c>
       <c r="H1017" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="J1017" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -36587,11 +37623,17 @@
         <v>-16931345.6378381</v>
       </c>
       <c r="H1018" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="J1018" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -36623,8 +37665,14 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="J1019" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -36653,13 +37701,19 @@
         <v>-16993732.0129381</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="J1020" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
-        <v>1</v>
+        <v>1.025025445292621</v>
       </c>
       <c r="M1020" t="inlineStr"/>
     </row>
@@ -36686,7 +37740,7 @@
         <v>-16431975.79272625</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -36719,7 +37773,7 @@
         <v>-16484222.68072625</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -36752,7 +37806,7 @@
         <v>-16408953.07172625</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -36785,7 +37839,7 @@
         <v>-16408953.07172625</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -36818,7 +37872,7 @@
         <v>-15919605.22662625</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36851,7 +37905,7 @@
         <v>-15919605.22662625</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -36884,7 +37938,7 @@
         <v>-15919605.22662625</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36917,7 +37971,7 @@
         <v>-16052982.63852625</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36950,7 +38004,7 @@
         <v>-16064735.05552625</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36983,7 +38037,7 @@
         <v>-16045434.25652625</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -37016,7 +38070,7 @@
         <v>-16121027.71132625</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -37049,7 +38103,7 @@
         <v>-16431027.71132625</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -37082,7 +38136,7 @@
         <v>-16431027.71132625</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -37115,7 +38169,7 @@
         <v>-16510610.26922625</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -37148,7 +38202,7 @@
         <v>-16705738.96412625</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -37181,7 +38235,7 @@
         <v>-16672982.56612625</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -37214,7 +38268,7 @@
         <v>-16628944.54712625</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -37247,7 +38301,7 @@
         <v>-16710825.99112625</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -37280,7 +38334,7 @@
         <v>-16696579.39712625</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -37313,7 +38367,7 @@
         <v>-16726776.26512625</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -37346,7 +38400,7 @@
         <v>-16673793.24412625</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -37379,7 +38433,7 @@
         <v>-16694856.14052625</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -37412,7 +38466,7 @@
         <v>-16694856.14052625</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -37445,7 +38499,7 @@
         <v>-16727306.38152625</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -37478,7 +38532,7 @@
         <v>-16780607.24452625</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -37511,7 +38565,7 @@
         <v>-16764699.98752625</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -37544,7 +38598,7 @@
         <v>-16799869.23952625</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -37577,7 +38631,7 @@
         <v>-16749574.22652625</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -37610,7 +38664,7 @@
         <v>-16749574.22652625</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -37643,7 +38697,7 @@
         <v>-16749574.22652625</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -37676,7 +38730,7 @@
         <v>-16798111.80952625</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -37709,7 +38763,7 @@
         <v>-16840382.04052625</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -37742,7 +38796,7 @@
         <v>-16850382.04052625</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -37775,7 +38829,7 @@
         <v>-16923469.72482625</v>
       </c>
       <c r="H1054" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -37808,7 +38862,7 @@
         <v>-16923469.72482625</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37841,7 +38895,7 @@
         <v>-16923469.72482625</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -37874,7 +38928,7 @@
         <v>-16923469.72482625</v>
       </c>
       <c r="H1057" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37907,7 +38961,7 @@
         <v>-16923469.72482625</v>
       </c>
       <c r="H1058" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37940,7 +38994,7 @@
         <v>-16923469.72482625</v>
       </c>
       <c r="H1059" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -37973,7 +39027,7 @@
         <v>-16923469.72482625</v>
       </c>
       <c r="H1060" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -38006,7 +39060,7 @@
         <v>-16923469.72482625</v>
       </c>
       <c r="H1061" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -38039,7 +39093,7 @@
         <v>-16923469.72482625</v>
       </c>
       <c r="H1062" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -38072,7 +39126,7 @@
         <v>-16923469.72482625</v>
       </c>
       <c r="H1063" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -38105,7 +39159,7 @@
         <v>-16923469.72482625</v>
       </c>
       <c r="H1064" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -38138,7 +39192,7 @@
         <v>-16940616.67662625</v>
       </c>
       <c r="H1065" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -38171,7 +39225,7 @@
         <v>-16921265.03262625</v>
       </c>
       <c r="H1066" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -38204,7 +39258,7 @@
         <v>-16921265.03262625</v>
       </c>
       <c r="H1067" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -38237,7 +39291,7 @@
         <v>-16921265.03262625</v>
       </c>
       <c r="H1068" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -38270,7 +39324,7 @@
         <v>-16921265.03262625</v>
       </c>
       <c r="H1069" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -38303,7 +39357,7 @@
         <v>-16820154.14153714</v>
       </c>
       <c r="H1070" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -38336,7 +39390,7 @@
         <v>-16855120.26853715</v>
       </c>
       <c r="H1071" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -38369,7 +39423,7 @@
         <v>-16855120.26853715</v>
       </c>
       <c r="H1072" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -38402,7 +39456,7 @@
         <v>-16870877.99253714</v>
       </c>
       <c r="H1073" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -38435,7 +39489,7 @@
         <v>-16906802.54153714</v>
       </c>
       <c r="H1074" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -38468,7 +39522,7 @@
         <v>-16900334.59953714</v>
       </c>
       <c r="H1075" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -38534,7 +39588,7 @@
         <v>-16908650.44299295</v>
       </c>
       <c r="H1077" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -39370,6 +40424,6 @@
       <c r="M1102" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-14 BackTest TMTG.xlsx
@@ -2530,7 +2530,7 @@
         <v>922551.5349113495</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>961727.3399113496</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>961727.3399113496</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>830174.5859113496</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>906248.3809113497</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>873550.1449113496</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>873550.1449113496</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>988454.9539113496</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>873438.6599113496</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>758289.4249113497</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>629187.6239113497</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>571189.6949113497</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>659009.5309113497</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>428760.9079113497</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>313450.6849113497</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>328028.0469113497</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>376551.5179113497</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>188011.5919113497</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>303735.5729113497</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>419530.9979113497</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>553522.6879113497</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>437404.5979113497</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>553129.2899113498</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>668711.9109113498</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>437774.4639113498</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>462029.9649113498</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>410238.6609113498</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>489387.8699113498</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>704296.0839113499</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>819627.5749113499</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>847325.6899113499</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>617637.0279113499</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>502649.5909113499</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>617721.1809113498</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>502440.9599113498</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>548150.4699113498</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>441419.4099113498</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>556754.7519113498</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>325662.6139113498</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>441102.3119113498</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1130986.63508865</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1211748.90208865</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1204172.35108865</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1187599.91208865</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1166285.70308865</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1159126.43208865</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1159126.43208865</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1194281.56208865</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-1231996.80108865</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1205789.63908865</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1214455.85408865</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1225269.32008865</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1209510.95308865</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1228922.63008865</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1091279.54208865</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-1058771.01308865</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1019733.76408865</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1020365.46808865</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1012474.58008865</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1004114.87808865</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1004114.87808865</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1004114.87808865</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1007441.15808865</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1002751.28608865</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1008784.01508865</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1030597.29508865</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1015752.87108865</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -16357,11 +16357,17 @@
         <v>-11286838.70123005</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>3.929</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +16400,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +16437,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +16474,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16493,7 +16511,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +16548,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +16585,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +16622,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +16659,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +16696,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16691,7 +16733,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16724,7 +16770,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +16807,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +16844,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16823,7 +16881,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16856,7 +16918,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16889,7 +16955,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +16992,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16955,7 +17029,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16988,7 +17066,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17021,7 +17103,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17054,7 +17140,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17087,7 +17177,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17120,7 +17214,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17153,7 +17251,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17186,7 +17288,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17219,7 +17325,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17252,7 +17362,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17285,7 +17399,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17318,7 +17436,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17351,7 +17473,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17384,7 +17510,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17417,7 +17547,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17450,7 +17584,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17483,7 +17621,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17516,7 +17658,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17549,7 +17695,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17582,7 +17732,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17615,7 +17769,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17648,7 +17806,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17681,7 +17843,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17714,7 +17880,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17747,7 +17917,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17780,7 +17954,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17813,7 +17991,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17846,7 +18028,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17879,7 +18065,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17912,7 +18102,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17945,7 +18139,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17978,7 +18176,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18007,11 +18209,15 @@
         <v>-10916768.39461654</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18040,11 +18246,15 @@
         <v>-11103692.53061654</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18073,11 +18283,15 @@
         <v>-11103692.53061654</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18110,7 +18324,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18143,7 +18361,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18176,7 +18398,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18209,7 +18435,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18242,7 +18472,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18275,7 +18509,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18308,7 +18546,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18341,7 +18583,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18374,7 +18620,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18407,7 +18657,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18440,7 +18694,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18473,7 +18731,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18506,7 +18768,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18539,7 +18805,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18572,7 +18842,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18605,7 +18879,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18638,7 +18916,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18671,7 +18953,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18704,7 +18990,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18737,7 +19027,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18770,7 +19064,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18803,7 +19101,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18836,7 +19138,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18869,7 +19175,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18902,7 +19212,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18935,7 +19249,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18968,7 +19286,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19001,7 +19323,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19034,7 +19360,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19067,7 +19397,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19100,7 +19434,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19133,7 +19471,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19166,7 +19508,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19199,7 +19545,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19232,7 +19582,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19265,7 +19619,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19298,7 +19656,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19331,7 +19693,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19364,7 +19730,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19397,7 +19767,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19430,7 +19804,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +19841,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19496,7 +19878,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19529,7 +19915,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19562,7 +19952,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19591,11 +19985,17 @@
         <v>-15607172.90711654</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>3.923</v>
+      </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19628,7 +20028,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19657,15 +20061,15 @@
         <v>-15497146.98161654</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>3.922</v>
-      </c>
-      <c r="J584" t="n">
-        <v>3.922</v>
-      </c>
-      <c r="K584" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19697,12 +20101,10 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>3.922</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L585" t="n">
@@ -19736,12 +20138,10 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>3.922</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L586" t="n">
@@ -19776,7 +20176,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19809,7 +20213,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19842,7 +20250,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19875,7 +20287,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19908,7 +20324,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19941,7 +20361,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19974,7 +20398,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20007,7 +20435,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20040,7 +20472,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20073,7 +20509,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20106,7 +20546,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20139,7 +20583,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20172,7 +20620,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20205,7 +20657,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20238,7 +20694,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20271,7 +20731,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20304,7 +20768,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20337,7 +20805,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20370,7 +20842,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20403,7 +20879,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20436,7 +20916,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20469,7 +20953,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20502,7 +20990,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20535,7 +21027,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20568,7 +21064,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20601,7 +21101,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20634,7 +21138,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20667,7 +21175,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20700,7 +21212,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20733,7 +21249,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20766,7 +21286,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20799,7 +21323,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20832,7 +21360,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20865,7 +21397,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20898,7 +21434,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20931,7 +21471,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20964,7 +21508,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20997,7 +21545,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21030,7 +21582,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21063,7 +21619,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21092,11 +21652,17 @@
         <v>-17208673.69033514</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>3.933</v>
+      </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21129,7 +21695,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21162,7 +21732,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21195,7 +21769,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21228,7 +21806,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21261,7 +21843,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21294,7 +21880,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21327,7 +21917,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21360,7 +21954,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21393,7 +21991,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21426,7 +22028,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21459,7 +22065,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21492,7 +22102,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21525,7 +22139,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21558,7 +22176,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21591,7 +22213,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21624,7 +22250,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21657,7 +22287,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21690,7 +22324,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21723,7 +22361,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21756,7 +22398,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21789,7 +22435,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21822,7 +22472,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21855,7 +22509,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21888,7 +22546,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21921,7 +22583,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21954,7 +22620,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21987,7 +22657,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22020,7 +22694,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22053,7 +22731,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22086,7 +22768,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22119,7 +22805,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22152,7 +22842,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22185,7 +22879,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22218,7 +22916,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22251,7 +22953,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22284,7 +22990,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22317,7 +23027,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22350,7 +23064,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22383,7 +23101,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22416,7 +23138,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22449,7 +23175,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22482,7 +23212,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22515,7 +23249,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22544,11 +23282,17 @@
         <v>-20059586.26423514</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>3.934</v>
+      </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22577,11 +23321,17 @@
         <v>-19705865.19843514</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>3.936</v>
+      </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22610,11 +23360,17 @@
         <v>-19978074.76243514</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22647,7 +23403,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22676,11 +23436,17 @@
         <v>-20014404.36143514</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>3.947</v>
+      </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22709,11 +23475,17 @@
         <v>-19759997.19143514</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>3.948</v>
+      </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22742,11 +23514,17 @@
         <v>-20253402.20543514</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>3.949</v>
+      </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22775,11 +23553,17 @@
         <v>-20683556.31243514</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>3.947</v>
+      </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22808,11 +23592,17 @@
         <v>-20205397.79343514</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>3.943</v>
+      </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22841,11 +23631,17 @@
         <v>-20529218.42173514</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22879,10 +23675,12 @@
       <c r="I681" t="n">
         <v>3.939</v>
       </c>
-      <c r="J681" t="n">
-        <v>3.939</v>
-      </c>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22911,15 +23709,15 @@
         <v>-20220178.67573514</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>3.941</v>
+      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L682" t="n">
@@ -22955,12 +23753,10 @@
       <c r="I683" t="n">
         <v>3.942</v>
       </c>
-      <c r="J683" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L683" t="n">
@@ -22991,17 +23787,13 @@
         <v>-20874934.51773514</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>3.941</v>
-      </c>
-      <c r="J684" t="n">
-        <v>3.939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L684" t="n">
@@ -23037,9 +23829,7 @@
       <c r="I685" t="n">
         <v>3.94</v>
       </c>
-      <c r="J685" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23078,9 +23868,7 @@
       <c r="I686" t="n">
         <v>3.943</v>
       </c>
-      <c r="J686" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23119,9 +23907,7 @@
       <c r="I687" t="n">
         <v>3.945</v>
       </c>
-      <c r="J687" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23160,9 +23946,7 @@
       <c r="I688" t="n">
         <v>3.934</v>
       </c>
-      <c r="J688" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23201,9 +23985,7 @@
       <c r="I689" t="n">
         <v>3.934</v>
       </c>
-      <c r="J689" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23242,9 +24024,7 @@
       <c r="I690" t="n">
         <v>3.935</v>
       </c>
-      <c r="J690" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23283,9 +24063,7 @@
       <c r="I691" t="n">
         <v>3.936</v>
       </c>
-      <c r="J691" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23324,9 +24102,7 @@
       <c r="I692" t="n">
         <v>3.937</v>
       </c>
-      <c r="J692" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23365,9 +24141,7 @@
       <c r="I693" t="n">
         <v>3.937</v>
       </c>
-      <c r="J693" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23404,9 +24178,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23440,12 +24212,12 @@
         <v>-20078965.98293513</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23484,9 +24256,7 @@
       <c r="I696" t="n">
         <v>3.949</v>
       </c>
-      <c r="J696" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23520,12 +24290,12 @@
         <v>-20035117.75693513</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>3.947</v>
+      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23559,12 +24329,12 @@
         <v>-20354933.37793513</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>3.948</v>
+      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23598,12 +24368,12 @@
         <v>-20168166.79193513</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23637,12 +24407,12 @@
         <v>-20147616.04093514</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>3.947</v>
+      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23676,12 +24446,12 @@
         <v>-20194596.51193514</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>3.948</v>
+      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23715,12 +24485,12 @@
         <v>-20194596.51193514</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>3.947</v>
+      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23754,12 +24524,12 @@
         <v>-20074103.26293514</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>3.947</v>
+      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23798,9 +24568,7 @@
       <c r="I704" t="n">
         <v>3.948</v>
       </c>
-      <c r="J704" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23839,9 +24607,7 @@
       <c r="I705" t="n">
         <v>3.949</v>
       </c>
-      <c r="J705" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23875,12 +24641,12 @@
         <v>-20004302.42103514</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23914,12 +24680,12 @@
         <v>-19925445.32363514</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23953,12 +24719,12 @@
         <v>-19861701.81123514</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23992,12 +24758,12 @@
         <v>-19663475.70673514</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24031,12 +24797,12 @@
         <v>-19804475.64273514</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24073,9 +24839,7 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24112,9 +24876,7 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24151,9 +24913,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24190,9 +24950,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24226,12 +24984,12 @@
         <v>-19045214.55173514</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>3.979</v>
+      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24265,12 +25023,12 @@
         <v>-19146012.47123514</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>3.979</v>
+      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24304,12 +25062,12 @@
         <v>-19146012.47123514</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>3.978</v>
+      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24346,9 +25104,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24382,12 +25138,12 @@
         <v>-19146012.47123514</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>3.978</v>
+      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24424,9 +25180,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>3.939</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24460,12 +25214,12 @@
         <v>-19575898.41533514</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>3.976</v>
+      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24499,12 +25253,12 @@
         <v>-19635415.55333514</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>3.976</v>
+      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24538,12 +25292,12 @@
         <v>-19708101.97633514</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24577,12 +25331,12 @@
         <v>-19527781.48933514</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24616,12 +25370,12 @@
         <v>-19636713.87633514</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24655,12 +25409,12 @@
         <v>-19641037.02833514</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24694,12 +25448,12 @@
         <v>-19538115.67933514</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24733,12 +25487,12 @@
         <v>-19456137.46833514</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>3.963</v>
+      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24772,12 +25526,12 @@
         <v>-19553798.99933514</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24811,12 +25565,12 @@
         <v>-19880446.47213514</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24850,12 +25604,12 @@
         <v>-19880446.47213514</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24889,12 +25643,12 @@
         <v>-19880446.47213514</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24928,12 +25682,12 @@
         <v>-19840416.31313514</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24967,12 +25721,12 @@
         <v>-19992586.45013514</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25006,12 +25760,12 @@
         <v>-19889756.44713514</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25045,12 +25799,12 @@
         <v>-19900228.71013514</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25084,12 +25838,12 @@
         <v>-19900228.71013514</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25123,12 +25877,12 @@
         <v>-19900228.71013514</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25162,12 +25916,12 @@
         <v>-19824620.88913514</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25201,12 +25955,12 @@
         <v>-19824620.88913514</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25240,12 +25994,12 @@
         <v>-19803017.99213514</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25279,12 +26033,12 @@
         <v>-19857959.52913514</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>3.963</v>
+      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25318,12 +26072,12 @@
         <v>-19857959.52913514</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25357,12 +26111,12 @@
         <v>-19583042.64313514</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25396,12 +26150,12 @@
         <v>-19171747.80363514</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>3.963</v>
+      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25435,12 +26189,12 @@
         <v>-19171747.80363514</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>3.976</v>
+      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25474,19 +26228,19 @@
         <v>-19297192.51763514</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>3.939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>3.976</v>
+      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L747" t="n">
-        <v>1.003631632394009</v>
+        <v>1</v>
       </c>
       <c r="M747" t="inlineStr"/>
     </row>
@@ -25513,11 +26267,17 @@
         <v>-19387633.83263515</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>3.973</v>
+      </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25546,11 +26306,17 @@
         <v>-19542493.08663515</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>3.972</v>
+      </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25579,11 +26345,17 @@
         <v>-19122578.88663515</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>3.971</v>
+      </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25612,11 +26384,17 @@
         <v>-19141602.45163515</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>3.973</v>
+      </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25645,11 +26423,17 @@
         <v>-19187373.35363515</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>3.971</v>
+      </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25678,11 +26462,17 @@
         <v>-19256254.83563515</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>3.97</v>
+      </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25711,11 +26501,17 @@
         <v>-19256254.83563515</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>3.969</v>
+      </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25744,11 +26540,17 @@
         <v>-19375585.52863515</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>3.969</v>
+      </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25777,11 +26579,17 @@
         <v>-19367363.81263515</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>3.968</v>
+      </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25810,11 +26618,17 @@
         <v>-19478383.72563515</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>3.969</v>
+      </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25843,11 +26657,17 @@
         <v>-19579787.61263515</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>3.967</v>
+      </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25876,11 +26696,17 @@
         <v>-19455689.92863515</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>3.966</v>
+      </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25909,11 +26735,17 @@
         <v>-19922922.38963515</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>3.967</v>
+      </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25942,15 +26774,13 @@
         <v>-20304057.41563515</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
-      </c>
-      <c r="I761" t="n">
-        <v>3.965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L761" t="n">
@@ -25981,11 +26811,9 @@
         <v>-20258028.27263515</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>3.963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -26020,11 +26848,9 @@
         <v>-20164727.47563515</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>3.964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -26059,11 +26885,9 @@
         <v>-20419819.35363515</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>3.965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -26098,11 +26922,9 @@
         <v>-20123436.58863515</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
-      </c>
-      <c r="I765" t="n">
-        <v>3.964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -26137,11 +26959,9 @@
         <v>-20103336.82663515</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>3.965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -26176,11 +26996,9 @@
         <v>-19939580.92563515</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>3.966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -26215,11 +27033,9 @@
         <v>-19790034.47663515</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>3.968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -26254,11 +27070,9 @@
         <v>-19995296.41563515</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>3.969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -26293,11 +27107,9 @@
         <v>-18918702.23015343</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>3.968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
@@ -26776,9 +27588,11 @@
         <v>-19725394.70705343</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>3.963</v>
+      </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -27257,11 +28071,9 @@
         <v>-19628724.63565343</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
-      </c>
-      <c r="I796" t="n">
-        <v>3.963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
@@ -27296,11 +28108,9 @@
         <v>-19807567.79965343</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>3.964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -27335,11 +28145,9 @@
         <v>-19660949.84565343</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>3.963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -27374,11 +28182,9 @@
         <v>-20085519.92675343</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>3.964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -27413,11 +28219,9 @@
         <v>-20085519.92675343</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
-      </c>
-      <c r="I800" t="n">
-        <v>3.963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -27452,11 +28256,9 @@
         <v>-19797284.13375343</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
-      </c>
-      <c r="I801" t="n">
-        <v>3.963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -27491,11 +28293,9 @@
         <v>-20837726.11825342</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>3.964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -27567,11 +28367,9 @@
         <v>-20378442.56725343</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>3.963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -27606,11 +28404,9 @@
         <v>-20284256.06025343</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>3.964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -29902,9 +30698,11 @@
         <v>-22607815.58375343</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29939,9 +30737,11 @@
         <v>-22146028.60775343</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>3.961</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29976,9 +30776,11 @@
         <v>-22146028.60775343</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>3.962</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -30013,9 +30815,11 @@
         <v>-22608841.02875343</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>3.962</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -30126,9 +30930,11 @@
         <v>-22458493.44175344</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -30163,9 +30969,11 @@
         <v>-22678190.45375343</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>3.961</v>
+      </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -30200,9 +31008,11 @@
         <v>-22909906.39975343</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>3.959</v>
+      </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
@@ -30276,9 +31086,11 @@
         <v>-22908227.30655444</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>3.957</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -30313,9 +31125,11 @@
         <v>-23121518.49655444</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>3.97</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -30350,9 +31164,11 @@
         <v>-23121518.49655444</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>3.969</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -30387,9 +31203,11 @@
         <v>-23179332.87855444</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>3.969</v>
+      </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -30424,9 +31242,11 @@
         <v>-23281480.71555444</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>3.967</v>
+      </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -30461,9 +31281,11 @@
         <v>-23283404.23655444</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>3.965</v>
+      </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -30498,9 +31320,11 @@
         <v>-23209709.12555444</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>3.964</v>
+      </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -30535,9 +31359,11 @@
         <v>-23022376.91755444</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>3.965</v>
+      </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -30572,9 +31398,11 @@
         <v>-23025294.62155444</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>3.966</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -30960,9 +31788,11 @@
         <v>-22402823.09845444</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>3.973</v>
+      </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -30997,9 +31827,11 @@
         <v>-22302896.73345444</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>3.979</v>
+      </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -31034,9 +31866,11 @@
         <v>-22093516.53945444</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>3.98</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -31071,9 +31905,11 @@
         <v>-22033998.50975444</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>3.988</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -31219,16 +32055,18 @@
         <v>-20588257.90593806</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L902" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L902" t="n">
+        <v>1</v>
+      </c>
       <c r="M902" t="inlineStr"/>
     </row>
     <row r="903">
@@ -31254,11 +32092,15 @@
         <v>-20551427.33693806</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31287,11 +32129,15 @@
         <v>-20801427.33693806</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31320,11 +32166,15 @@
         <v>-20692873.35483807</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31353,11 +32203,15 @@
         <v>-20556346.97631033</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31386,11 +32240,15 @@
         <v>-20581377.40331033</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31419,11 +32277,17 @@
         <v>-20581377.40331033</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>4.001</v>
+      </c>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31452,11 +32316,17 @@
         <v>-20391608.86613807</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>4.001</v>
+      </c>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31485,11 +32355,17 @@
         <v>-20307887.78163807</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>4.002</v>
+      </c>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31518,11 +32394,17 @@
         <v>-20362559.30423807</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>4.006</v>
+      </c>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31551,11 +32433,17 @@
         <v>-20234894.16723807</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>4.005</v>
+      </c>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31584,11 +32472,17 @@
         <v>-20053674.03674031</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>4.006</v>
+      </c>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31621,7 +32515,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31654,7 +32552,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31687,7 +32589,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31720,7 +32626,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31753,7 +32663,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31786,7 +32700,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31819,7 +32737,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31852,7 +32774,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31885,7 +32811,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31918,7 +32848,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31951,7 +32885,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31984,7 +32922,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32017,7 +32959,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32050,7 +32996,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32083,7 +33033,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32116,7 +33070,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32149,7 +33107,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32182,7 +33144,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32215,7 +33181,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32248,7 +33218,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32281,7 +33255,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32314,7 +33292,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32347,7 +33329,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32380,7 +33366,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32413,7 +33403,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32446,7 +33440,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32479,7 +33477,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32512,7 +33514,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32545,7 +33551,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32578,7 +33588,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32611,7 +33625,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32644,7 +33662,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32677,7 +33699,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32710,7 +33736,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32743,7 +33773,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32776,7 +33810,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32809,7 +33847,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32842,7 +33884,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32875,7 +33921,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32908,7 +33958,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32941,7 +33995,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32974,7 +34032,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33007,7 +34069,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33040,7 +34106,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33073,7 +34143,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33106,7 +34180,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33139,7 +34217,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33172,7 +34254,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33205,7 +34291,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33238,7 +34328,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33271,7 +34365,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33304,7 +34402,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33337,7 +34439,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33370,7 +34476,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33403,7 +34513,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33436,7 +34550,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33469,7 +34587,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33502,7 +34624,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33535,7 +34661,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33568,7 +34698,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33601,7 +34735,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33634,7 +34772,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33667,7 +34809,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33700,7 +34846,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33733,7 +34883,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33766,7 +34920,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33799,7 +34957,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33832,7 +34994,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33865,7 +35031,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33898,7 +35068,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33931,7 +35105,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33964,7 +35142,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33993,15 +35175,15 @@
         <v>-20018455.97683809</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
-      </c>
-      <c r="I986" t="n">
-        <v>4</v>
-      </c>
-      <c r="J986" t="n">
-        <v>4</v>
-      </c>
-      <c r="K986" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34033,12 +35215,10 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>4</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L987" t="n">
@@ -34072,12 +35252,10 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>4</v>
-      </c>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L988" t="n">
@@ -34112,7 +35290,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34145,7 +35327,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34178,7 +35364,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34211,7 +35401,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34244,7 +35438,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34277,7 +35475,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34310,7 +35512,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34343,7 +35549,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34376,7 +35586,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34409,7 +35623,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34442,7 +35660,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34475,7 +35697,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34508,7 +35734,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34541,7 +35771,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34570,14 +35804,16 @@
         <v>-17166700.8658381</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
-      <c r="L1003" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1003" t="inlineStr"/>
       <c r="M1003" t="inlineStr"/>
     </row>
     <row r="1004">
@@ -34603,7 +35839,7 @@
         <v>-16892376.7538381</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -34636,7 +35872,7 @@
         <v>-16892376.7538381</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -34669,7 +35905,7 @@
         <v>-16622134.6956381</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -34702,7 +35938,7 @@
         <v>-16327833.3822381</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -34735,7 +35971,7 @@
         <v>-16327833.3822381</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -34768,7 +36004,7 @@
         <v>-15915955.3349381</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -34801,7 +36037,7 @@
         <v>-15911926.9249381</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -34834,7 +36070,7 @@
         <v>-16847321.2268381</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -34867,7 +36103,7 @@
         <v>-16775209.4098381</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -34900,7 +36136,7 @@
         <v>-16948191.1699381</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -34933,7 +36169,7 @@
         <v>-16998193.5342381</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -34966,7 +36202,7 @@
         <v>-16998193.5342381</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -34999,7 +36235,7 @@
         <v>-16911838.3778381</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35032,7 +36268,7 @@
         <v>-16911838.3778381</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35065,7 +36301,7 @@
         <v>-16931345.6378381</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35098,7 +36334,7 @@
         <v>-16993732.0129381</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35131,7 +36367,7 @@
         <v>-16993732.0129381</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35164,7 +36400,7 @@
         <v>-16431975.79272625</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -35197,7 +36433,7 @@
         <v>-16484222.68072625</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -35230,7 +36466,7 @@
         <v>-16408953.07172625</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -35263,7 +36499,7 @@
         <v>-16408953.07172625</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35296,7 +36532,7 @@
         <v>-15919605.22662625</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -35329,7 +36565,7 @@
         <v>-15919605.22662625</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -35362,7 +36598,7 @@
         <v>-15919605.22662625</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35395,7 +36631,7 @@
         <v>-16052982.63852625</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35428,7 +36664,7 @@
         <v>-16064735.05552625</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -35461,7 +36697,7 @@
         <v>-16045434.25652625</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -35494,7 +36730,7 @@
         <v>-16121027.71132625</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -35527,7 +36763,7 @@
         <v>-16431027.71132625</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36847,7 +38083,7 @@
         <v>-16855120.26853715</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -37078,7 +38314,7 @@
         <v>-16908650.44299295</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -37111,7 +38347,7 @@
         <v>-16908650.44299295</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -37144,7 +38380,7 @@
         <v>-16908650.44299295</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -37177,7 +38413,7 @@
         <v>-16908650.44299295</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -37210,7 +38446,7 @@
         <v>-16973438.19999295</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
